--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1697,16 +1697,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,8 +2343,8 @@
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>18</v>
+      <c r="B16" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -2724,8 +2724,8 @@
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>18</v>
+      <c r="B38" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
@@ -3200,12 +3200,12 @@
       <c r="A65" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
@@ -3289,12 +3289,12 @@
       <c r="A70" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="52"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -3553,12 +3553,12 @@
       <c r="A83" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="52"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -3656,12 +3656,12 @@
       <c r="A89" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="52"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -3805,12 +3805,12 @@
       <c r="A97" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="50"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="52"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -3917,12 +3917,12 @@
       <c r="A103" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="50"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="52"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -4020,8 +4020,8 @@
       <c r="A108" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>18</v>
+      <c r="B108" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>4</v>
@@ -4112,12 +4112,12 @@
       <c r="A113" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="50"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="52"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -4169,8 +4169,8 @@
       <c r="A116" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>18</v>
+      <c r="B116" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>4</v>
@@ -4215,12 +4215,12 @@
       <c r="A119" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="49"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="50"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="52"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -4640,6 +4640,18 @@
     <sortCondition ref="A138"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A13:G13"/>
@@ -4647,18 +4659,6 @@
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A119:G119"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>

--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrunaCarolineTegon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD114DA7-A02A-495F-B18A-49A282622C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="185">
   <si>
     <t>Nome</t>
   </si>
@@ -218,9 +219,6 @@
     </r>
   </si>
   <si>
-    <t>DataVencimento</t>
-  </si>
-  <si>
     <t>TABELA MENSALIDADE - Contém dados para validação de mensalidades dos clientes cadastrados</t>
   </si>
   <si>
@@ -357,10 +355,6 @@
   </si>
   <si>
     <t xml:space="preserve"> TABELA PESSOA - Contém dados de uma pessoa cadastrada na organização</t>
-  </si>
-  <si>
-    <t>Data de vencimento da mensalidade do cliente. 
-Formato: ano, mês e dia (AAAA-MM-DD).</t>
   </si>
   <si>
     <t>Senha</t>
@@ -793,9 +787,6 @@
     <t>Anexar arquivos de acordo com a necessidade do usuário.</t>
   </si>
   <si>
-    <t xml:space="preserve">Remuneração pela prestação de serviços. </t>
-  </si>
-  <si>
     <t>Endereço residencial especificando cidade, logradouro, número, bairro, CEP, UF.</t>
   </si>
   <si>
@@ -1029,6 +1020,340 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Descrição do usuário referente ao </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>'Alta', 'Média' ou 'Baixa'</t>
+  </si>
+  <si>
+    <t>'Incidente', 'Melhoria' ou 'Dúvida'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prioridade do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atribuída pelo analista (alta, média ou baixa).</t>
+    </r>
+  </si>
+  <si>
+    <t>'Aberto', 'Em Progresso', 'Em Revisão' ou 'Fechado'</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Título do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fornecido pelo usuário que sumariza a circunstância</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Foto para reconhecimento do usuário.</t>
+  </si>
+  <si>
+    <t>Imagem</t>
+  </si>
+  <si>
+    <t>Imagem para reconhecimento do parceiro.</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>Arquivo</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>Arquivo do manual</t>
+  </si>
+  <si>
+    <t>IdManual</t>
+  </si>
+  <si>
+    <t>decimal(3,2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(25)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(80)</t>
+    </r>
+  </si>
+  <si>
+    <t>TABELA MANUAIS - Tabela ao armazenamento de manuais do sistema</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número identificador do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ticket.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(80)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome do manual.</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Número do cadastro de pessoa física do professor, referencia a tabela Funcionário.</t>
+  </si>
+  <si>
+    <r>
+      <t>Definição do s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de um </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aberto - ainda não resolvido, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, fechado - resolvido).</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Classificação do </t>
     </r>
     <r>
@@ -1050,370 +1375,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>atribuída pelo analista (incidente, melhoria ou dúvida).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Descrição do usuário referente ao </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ticket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>'Alta', 'Média' ou 'Baixa'</t>
-  </si>
-  <si>
-    <t>'Incidente', 'Melhoria' ou 'Dúvida'</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prioridade do </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ticket </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atribuída pelo analista (alta, média ou baixa).</t>
-    </r>
-  </si>
-  <si>
-    <t>Responsável</t>
-  </si>
-  <si>
-    <t>'Aberto', 'Em Progresso', 'Em Revisão' ou 'Fechado'</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Título do </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ticket </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fornecido pelo usuário que sumariza a circunstância</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>TABELA ANALISTA - Especialização da tabela Pessoa que contém dados dos analistas à manutenção do sistema</t>
-  </si>
-  <si>
-    <t>Foto</t>
-  </si>
-  <si>
-    <t>Foto para reconhecimento do usuário.</t>
-  </si>
-  <si>
-    <t>Imagem</t>
-  </si>
-  <si>
-    <t>Imagem para reconhecimento do parceiro.</t>
-  </si>
-  <si>
-    <t>BLOB</t>
-  </si>
-  <si>
-    <t>Arquivo</t>
-  </si>
-  <si>
-    <t>LONGBLOB</t>
-  </si>
-  <si>
-    <t>Arquivo do manual</t>
-  </si>
-  <si>
-    <t>IdManual</t>
-  </si>
-  <si>
-    <t>decimal(3,2)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(25)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1000)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(10)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(80)</t>
-    </r>
-  </si>
-  <si>
-    <t>TABELA MANUAIS - Tabela ao armazenamento de manuais do sistema</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número identificador do </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ticket.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">varchar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(80)</t>
-    </r>
-  </si>
-  <si>
-    <t>Nome do manual.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número do cadastro de pessoa física do analista responsável pela tratativa do </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ticket, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>referencia a tabela Analista</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>Número do cadastro de pessoa física do professor, referencia a tabela Funcionário.</t>
-  </si>
-  <si>
-    <r>
-      <t>Definição do s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de um </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ticket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (aberto - ainda não resolvido, fechado - resolvido).</t>
-    </r>
+      <t>atribuída pelo analista (incidente ou solicitação).</t>
+    </r>
+  </si>
+  <si>
+    <t>DataPagamento</t>
+  </si>
+  <si>
+    <t>Data de pagamento da mensalidade do cliente. 
+Formato: ano, mês e dia (AAAA-MM-DD).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1555,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,12 +1658,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,16 +1667,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2022,37 +1992,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="45" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="59.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2069,13 +2039,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2095,15 +2065,15 @@
         <v>22</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>4</v>
@@ -2118,12 +2088,12 @@
         <v>22</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>18</v>
@@ -2141,15 +2111,15 @@
         <v>22</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -2164,15 +2134,15 @@
         <v>22</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>7</v>
@@ -2187,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -2210,15 +2180,15 @@
         <v>22</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
@@ -2233,10 +2203,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2256,10 +2226,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -2276,24 +2246,24 @@
         <v>22</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2310,41 +2280,41 @@
         <v>11</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -2359,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -2382,21 +2352,21 @@
         <v>22</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2413,13 +2383,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -2439,12 +2409,12 @@
         <v>22</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>20</v>
@@ -2462,15 +2432,15 @@
         <v>22</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>4</v>
@@ -2485,15 +2455,15 @@
         <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
@@ -2508,21 +2478,21 @@
         <v>22</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -2539,13 +2509,13 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
@@ -2565,15 +2535,15 @@
         <v>22</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>4</v>
@@ -2588,15 +2558,15 @@
         <v>22</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>4</v>
@@ -2608,18 +2578,18 @@
         <v>22</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>4</v>
@@ -2634,24 +2604,24 @@
         <v>22</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2668,13 +2638,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
@@ -2694,12 +2664,12 @@
         <v>22</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>20</v>
@@ -2714,18 +2684,18 @@
         <v>22</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
@@ -2740,44 +2710,44 @@
         <v>22</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -2794,13 +2764,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -2820,12 +2790,12 @@
         <v>22</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>18</v>
@@ -2843,15 +2813,15 @@
         <v>22</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>4</v>
@@ -2866,15 +2836,15 @@
         <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>7</v>
@@ -2889,10 +2859,10 @@
         <v>22</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2912,10 +2882,10 @@
         <v>22</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -2935,21 +2905,21 @@
         <v>22</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -2966,13 +2936,13 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2992,10 +2962,10 @@
         <v>22</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
       <c r="B53" s="25"/>
       <c r="C53" s="27"/>
@@ -3004,18 +2974,18 @@
       <c r="F53" s="28"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -3032,18 +3002,18 @@
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>4</v>
@@ -3058,15 +3028,15 @@
         <v>22</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>7</v>
@@ -3081,12 +3051,12 @@
         <v>22</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>23</v>
@@ -3104,10 +3074,10 @@
         <v>22</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="26"/>
       <c r="B59" s="25"/>
       <c r="C59" s="27"/>
@@ -3116,18 +3086,18 @@
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="30" t="s">
         <v>21</v>
       </c>
@@ -3144,13 +3114,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>3</v>
       </c>
@@ -3170,10 +3140,10 @@
         <v>22</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3193,12 +3163,12 @@
         <v>22</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
-        <v>88</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
@@ -3207,7 +3177,7 @@
       <c r="F65" s="49"/>
       <c r="G65" s="50"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="30" t="s">
         <v>21</v>
       </c>
@@ -3224,15 +3194,15 @@
         <v>11</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>23</v>
@@ -3250,10 +3220,10 @@
         <v>22</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -3273,10 +3243,10 @@
         <v>22</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="26"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
@@ -3285,9 +3255,9 @@
       <c r="F69" s="35"/>
       <c r="G69" s="29"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>80</v>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
@@ -3296,7 +3266,7 @@
       <c r="F70" s="49"/>
       <c r="G70" s="50"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
@@ -3313,18 +3283,18 @@
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>4</v>
@@ -3336,18 +3306,18 @@
         <v>22</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>4</v>
@@ -3362,15 +3332,15 @@
         <v>22</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>4</v>
@@ -3385,15 +3355,15 @@
         <v>22</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>4</v>
@@ -3408,10 +3378,10 @@
         <v>22</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>3</v>
       </c>
@@ -3431,15 +3401,15 @@
         <v>22</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>4</v>
@@ -3454,15 +3424,15 @@
         <v>22</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>4</v>
@@ -3477,38 +3447,38 @@
         <v>22</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="G79" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>4</v>
@@ -3523,15 +3493,15 @@
         <v>22</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>4</v>
@@ -3546,12 +3516,12 @@
         <v>22</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
-        <v>64</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="49"/>
@@ -3560,7 +3530,7 @@
       <c r="F83" s="49"/>
       <c r="G83" s="50"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>21</v>
       </c>
@@ -3577,13 +3547,13 @@
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
         <v>3</v>
       </c>
@@ -3603,15 +3573,15 @@
         <v>22</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>4</v>
@@ -3626,15 +3596,15 @@
         <v>22</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>4</v>
@@ -3646,24 +3616,24 @@
         <v>22</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="52"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="48"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>21</v>
       </c>
@@ -3680,18 +3650,18 @@
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>4</v>
@@ -3706,15 +3676,15 @@
         <v>22</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>4</v>
@@ -3729,15 +3699,15 @@
         <v>22</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>4</v>
@@ -3752,15 +3722,15 @@
         <v>22</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>4</v>
@@ -3775,15 +3745,15 @@
         <v>22</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>4</v>
@@ -3795,24 +3765,24 @@
         <v>22</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="52"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="48"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>21</v>
       </c>
@@ -3829,13 +3799,13 @@
         <v>11</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="s">
         <v>3</v>
       </c>
@@ -3855,15 +3825,15 @@
         <v>22</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>4</v>
@@ -3878,15 +3848,15 @@
         <v>22</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>4</v>
@@ -3901,10 +3871,10 @@
         <v>22</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="36"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -3913,18 +3883,18 @@
       <c r="F102" s="39"/>
       <c r="G102" s="40"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="52"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="48"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>21</v>
       </c>
@@ -3941,18 +3911,18 @@
         <v>11</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>4</v>
@@ -3967,15 +3937,15 @@
         <v>22</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>4</v>
@@ -3987,18 +3957,18 @@
         <v>22</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>4</v>
@@ -4013,15 +3983,15 @@
         <v>22</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>4</v>
@@ -4036,15 +4006,15 @@
         <v>22</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>7</v>
@@ -4059,15 +4029,15 @@
         <v>22</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>4</v>
@@ -4082,15 +4052,15 @@
         <v>22</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>4</v>
@@ -4105,21 +4075,21 @@
         <v>22</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="52"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="48"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>21</v>
       </c>
@@ -4136,18 +4106,18 @@
         <v>11</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>4</v>
@@ -4162,15 +4132,15 @@
         <v>22</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>4</v>
@@ -4185,10 +4155,10 @@
         <v>22</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>9</v>
       </c>
@@ -4208,21 +4178,21 @@
         <v>22</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="52"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="48"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>21</v>
       </c>
@@ -4239,18 +4209,18 @@
         <v>11</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>7</v>
@@ -4265,12 +4235,12 @@
         <v>22</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>18</v>
@@ -4285,18 +4255,18 @@
         <v>22</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>4</v>
@@ -4311,15 +4281,15 @@
         <v>22</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>4</v>
@@ -4334,15 +4304,15 @@
         <v>22</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>4</v>
@@ -4357,12 +4327,12 @@
         <v>22</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>18</v>
@@ -4377,41 +4347,41 @@
         <v>22</v>
       </c>
       <c r="F126" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="B128" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>4</v>
@@ -4422,99 +4392,99 @@
       <c r="E128" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F128" s="18" t="s">
-        <v>163</v>
+      <c r="F128" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="21" t="s">
+      <c r="B132" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E133" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>4</v>
@@ -4529,129 +4499,14 @@
         <v>22</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A138:G140">
-    <sortCondition ref="A138"/>
+  <sortState ref="A132:G134">
+    <sortCondition ref="A132"/>
   </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A83:G83"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A13:G13"/>
@@ -4659,6 +4514,17 @@
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A119:G119"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>

--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrunaCarolineTegon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD114DA7-A02A-495F-B18A-49A282622C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F8B479-3C86-420E-8519-4089EA54CA92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="188">
   <si>
     <t>Nome</t>
   </si>
@@ -411,9 +411,6 @@
     <t xml:space="preserve">TABELA EXECUTA - Determina os treinamentos executados pelos clientes      </t>
   </si>
   <si>
-    <t>TABELA DEPOIMENTOS - Contém os depoimentos feitos pelos clientes</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
       </rPr>
       <t xml:space="preserve"> no sistema.</t>
     </r>
-  </si>
-  <si>
-    <t>TABELA AGENDAMENTO AVAL. FÍSICA MENSAL - Contém os agendamentos de avaliações físicas realizados por clientes</t>
   </si>
   <si>
     <t>TABELA AGENDAMENTO AULA EXPERIMENTAL - Contém os agendamentos de aulas experimentais realizados por público externo</t>
@@ -790,9 +784,6 @@
     <t>Endereço residencial especificando cidade, logradouro, número, bairro, CEP, UF.</t>
   </si>
   <si>
-    <t>'Cliente', 'Colaborador' ou 'Analista'</t>
-  </si>
-  <si>
     <t>Determina a localização da filial especificando cidade, logradouro, número, bairro, CEP, UF.</t>
   </si>
   <si>
@@ -853,9 +844,6 @@
       </rPr>
       <t>(8)</t>
     </r>
-  </si>
-  <si>
-    <t>Classificação da pessoa ao cadastro, diferenciando-se clientes, colaboradores ou analistas.</t>
   </si>
   <si>
     <t>Horário de sessões de treinamento do aluno. 
@@ -1384,6 +1372,27 @@
   <si>
     <t>Data de pagamento da mensalidade do cliente. 
 Formato: ano, mês e dia (AAAA-MM-DD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELA AGENDAMENTO AVAL. FÍSICA - Contém os agendamentos de avaliações físicas </t>
+  </si>
+  <si>
+    <t>TABELA REALIZA - Contém os clientes associados aos agendamentos de avaliações físicas</t>
+  </si>
+  <si>
+    <t>TABELA DEPOIMENTOS - Contém os depoimentos redigidos por clientes</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Especificação de período para extração de relatório.</t>
+  </si>
+  <si>
+    <t>'Cliente' ou 'Colaborador'</t>
+  </si>
+  <si>
+    <t>Classificação da pessoa ao cadastro, diferenciando-se clientes ou colaboradores.</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,17 +1676,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2070,7 +2091,7 @@
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>30</v>
@@ -2093,7 +2114,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>18</v>
@@ -2134,15 +2155,15 @@
         <v>22</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>165</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>7</v>
@@ -2157,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2188,7 +2209,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
@@ -2203,7 +2224,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2246,10 +2267,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2306,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2432,15 +2453,15 @@
         <v>22</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>4</v>
@@ -2455,7 +2476,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2478,396 +2499,419 @@
         <v>22</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>119</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="C35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>4</v>
@@ -2882,421 +2926,421 @@
         <v>22</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="14" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+    </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B51" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="15" t="s">
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="26"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="26"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="C56" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B60" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C60" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D60" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E60" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F60" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G60" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="48"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="30" t="s">
+      <c r="C66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="29"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G70" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="29"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="46" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>15</v>
+      <c r="B71" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="12" t="s">
@@ -3306,15 +3350,15 @@
         <v>22</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>146</v>
+        <v>22</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>54</v>
@@ -3332,12 +3376,12 @@
         <v>22</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>54</v>
@@ -3355,84 +3399,84 @@
         <v>22</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="41" t="s">
+      <c r="C77" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="41" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>4</v>
@@ -3444,18 +3488,18 @@
         <v>22</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>138</v>
+        <v>82</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>82</v>
+        <v>129</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>4</v>
@@ -3467,15 +3511,15 @@
         <v>22</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>147</v>
+        <v>22</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>54</v>
@@ -3493,204 +3537,204 @@
         <v>22</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="48"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
+      <c r="A83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>15</v>
+      <c r="A84" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="50"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="48"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B90" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>22</v>
@@ -3698,627 +3742,587 @@
       <c r="F92" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="52"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="40"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="50"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="50"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B94" s="13" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="36"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="40"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="50"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="48"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="36"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="40"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="48"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="34" t="s">
+      <c r="B108" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G106" s="34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F109" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G109" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="14" t="s">
-        <v>72</v>
+      <c r="G109" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" s="14" t="s">
+      <c r="B113" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="48"/>
-    </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="36"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="51"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="50"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="14" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="14" t="s">
+      <c r="B118" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="14" t="s">
+    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B119" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
+      <c r="C119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B121" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B119" s="47"/>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+      <c r="C121" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="50"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>13</v>
+        <v>163</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>22</v>
@@ -4327,12 +4331,12 @@
         <v>22</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>18</v>
@@ -4347,18 +4351,18 @@
         <v>22</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>4</v>
@@ -4367,21 +4371,21 @@
         <v>22</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>181</v>
+        <v>13</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>4</v>
@@ -4396,135 +4400,228 @@
         <v>22</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>15</v>
+      <c r="A130" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B133" s="13" t="s">
+      <c r="E132" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="14" t="s">
+      <c r="C137" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>178</v>
+      <c r="B138" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A132:G134">
-    <sortCondition ref="A132"/>
+  <sortState ref="A137:G138">
+    <sortCondition ref="A136"/>
   </sortState>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A82:G82"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
